--- a/Annotations/Old/Dracula.xlsx
+++ b/Annotations/Old/Dracula.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9252" windowHeight="10620"/>
   </bookViews>
   <sheets>
     <sheet name="draculaV2" sheetId="1" r:id="rId1"/>
@@ -1611,14 +1611,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P233"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G234" sqref="G234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" style="2" customWidth="1"/>
@@ -1680,7 +1681,7 @@
     <row r="2" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.67079308995912212</v>
+        <v>0.51259131570946836</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -1704,7 +1705,7 @@
     <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29390608552189224</v>
+        <v>7.3201768363533093E-2</v>
       </c>
       <c r="B3" s="2">
         <v>54</v>
@@ -1728,7 +1729,7 @@
     <row r="4" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32853599053374827</v>
+        <v>0.13364776357635866</v>
       </c>
       <c r="B4" s="2">
         <v>213</v>
@@ -1755,7 +1756,7 @@
     <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1989978730496994</v>
+        <v>7.6369273842116447E-2</v>
       </c>
       <c r="B5" s="2">
         <v>101</v>
@@ -1779,7 +1780,7 @@
     <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44394755614521342</v>
+        <v>0.47888140938673207</v>
       </c>
       <c r="B6" s="2">
         <v>53</v>
@@ -1803,7 +1804,7 @@
     <row r="7" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40407013219769228</v>
+        <v>7.550011010998714E-2</v>
       </c>
       <c r="B7" s="2">
         <v>109</v>
@@ -1827,7 +1828,7 @@
     <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67403527480290892</v>
+        <v>0.76184053784657002</v>
       </c>
       <c r="B8" s="2">
         <v>118</v>
@@ -1851,7 +1852,7 @@
     <row r="9" spans="1:16" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3968394044292346</v>
+        <v>0.37147483977263307</v>
       </c>
       <c r="B9" s="2">
         <v>122</v>
@@ -1872,7 +1873,7 @@
     <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7899884393918718</v>
+        <v>1.0668966245111489E-2</v>
       </c>
       <c r="B10" s="2">
         <v>86</v>
@@ -1899,7 +1900,7 @@
     <row r="11" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0799287408081013E-2</v>
+        <v>0.71116083070747182</v>
       </c>
       <c r="B11" s="2">
         <v>199</v>
@@ -1923,7 +1924,7 @@
     <row r="12" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65916387906350549</v>
+        <v>0.58335506190609099</v>
       </c>
       <c r="B12" s="2">
         <v>87</v>
@@ -1950,7 +1951,7 @@
     <row r="13" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59102782844687207</v>
+        <v>0.15105399554958143</v>
       </c>
       <c r="B13" s="2">
         <v>36</v>
@@ -1971,7 +1972,7 @@
     <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30460525813590023</v>
+        <v>0.15243036819565414</v>
       </c>
       <c r="B14" s="2">
         <v>203</v>
@@ -1992,7 +1993,7 @@
     <row r="15" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35096834823540446</v>
+        <v>0.44637090312888406</v>
       </c>
       <c r="B15" s="2">
         <v>158</v>
@@ -2013,7 +2014,7 @@
     <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76455488989493336</v>
+        <v>0.40472377772273638</v>
       </c>
       <c r="B16" s="2">
         <v>152</v>
@@ -2034,7 +2035,7 @@
     <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84215852078889308</v>
+        <v>0.68716698862791026</v>
       </c>
       <c r="B17" s="2">
         <v>159</v>
@@ -2058,7 +2059,7 @@
     <row r="18" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38341566083715217</v>
+        <v>0.79258234187736853</v>
       </c>
       <c r="B18" s="2">
         <v>14</v>
@@ -2082,7 +2083,7 @@
     <row r="19" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98600733818505104</v>
+        <v>3.9212965965294333E-2</v>
       </c>
       <c r="B19" s="2">
         <v>161</v>
@@ -2109,7 +2110,7 @@
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95322368757825982</v>
+        <v>0.27287499703395346</v>
       </c>
       <c r="B20" s="2">
         <v>82</v>
@@ -2136,7 +2137,7 @@
     <row r="21" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92006670576507132</v>
+        <v>0.60315967275889015</v>
       </c>
       <c r="B21" s="2">
         <v>176</v>
@@ -2163,7 +2164,7 @@
     <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91440635142182647</v>
+        <v>0.85262280393349843</v>
       </c>
       <c r="B22" s="2">
         <v>231</v>
@@ -2184,7 +2185,7 @@
     <row r="23" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9678900312373081</v>
+        <v>0.97011005180481913</v>
       </c>
       <c r="B23" s="2">
         <v>121</v>
@@ -2205,7 +2206,7 @@
     <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2033419283811404</v>
+        <v>0.67221899733277168</v>
       </c>
       <c r="B24" s="2">
         <v>44</v>
@@ -2229,7 +2230,7 @@
     <row r="25" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75289665530928762</v>
+        <v>0.4553842023011081</v>
       </c>
       <c r="B25" s="2">
         <v>131</v>
@@ -2253,7 +2254,7 @@
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20713883625836327</v>
+        <v>0.51497640059450434</v>
       </c>
       <c r="B26" s="2">
         <v>90</v>
@@ -2277,7 +2278,7 @@
     <row r="27" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6756961518750576</v>
+        <v>0.48576509071411966</v>
       </c>
       <c r="B27" s="2">
         <v>198</v>
@@ -2301,7 +2302,7 @@
     <row r="28" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21112018391102483</v>
+        <v>0.92778307180081665</v>
       </c>
       <c r="B28" s="2">
         <v>18</v>
@@ -2322,7 +2323,7 @@
     <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50818881266818905</v>
+        <v>0.94461559112043592</v>
       </c>
       <c r="B29" s="2">
         <v>116</v>
@@ -2343,7 +2344,7 @@
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79750600925210569</v>
+        <v>0.56179530499955821</v>
       </c>
       <c r="B30" s="2">
         <v>173</v>
@@ -2367,7 +2368,7 @@
     <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15971269922927145</v>
+        <v>0.83576537052633515</v>
       </c>
       <c r="B31" s="2">
         <v>16</v>
@@ -2394,7 +2395,7 @@
     <row r="32" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1234173442797717E-2</v>
+        <v>0.55236761627363329</v>
       </c>
       <c r="B32" s="2">
         <v>110</v>
@@ -2418,7 +2419,7 @@
     <row r="33" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75978722807171795</v>
+        <v>0.87172358369134517</v>
       </c>
       <c r="B33" s="2">
         <v>226</v>
@@ -2442,7 +2443,7 @@
     <row r="34" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72679281050700562</v>
+        <v>0.72324796563330651</v>
       </c>
       <c r="B34" s="2">
         <v>140</v>
@@ -2469,7 +2470,7 @@
     <row r="35" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2471710217141254E-2</v>
+        <v>0.87423510062571796</v>
       </c>
       <c r="B35" s="2">
         <v>35</v>
@@ -2490,7 +2491,7 @@
     <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66911789820801959</v>
+        <v>0.22153522765507139</v>
       </c>
       <c r="B36" s="2">
         <v>191</v>
@@ -2514,7 +2515,7 @@
     <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37445621664181994</v>
+        <v>4.5874076551653542E-2</v>
       </c>
       <c r="B37" s="2">
         <v>190</v>
@@ -2538,7 +2539,7 @@
     <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99839824997196036</v>
+        <v>0.38622698194259009</v>
       </c>
       <c r="B38" s="2">
         <v>73</v>
@@ -2565,7 +2566,7 @@
     <row r="39" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13610896011155549</v>
+        <v>0.60981461777139123</v>
       </c>
       <c r="B39" s="2">
         <v>120</v>
@@ -2586,7 +2587,7 @@
     <row r="40" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4067691178046059</v>
+        <v>0.78833980149249461</v>
       </c>
       <c r="B40" s="2">
         <v>88</v>
@@ -2610,7 +2611,7 @@
     <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73412148945327405</v>
+        <v>0.3471035143856217</v>
       </c>
       <c r="B41" s="2">
         <v>32</v>
@@ -2631,7 +2632,7 @@
     <row r="42" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6662547023680139E-2</v>
+        <v>0.77973644836182299</v>
       </c>
       <c r="B42" s="2">
         <v>97</v>
@@ -2655,7 +2656,7 @@
     <row r="43" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31670227693881414</v>
+        <v>0.3405612774682778</v>
       </c>
       <c r="B43" s="2">
         <v>50</v>
@@ -2679,7 +2680,7 @@
     <row r="44" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55071619501900404</v>
+        <v>0.16971063516848661</v>
       </c>
       <c r="B44" s="2">
         <v>170</v>
@@ -2709,7 +2710,7 @@
     <row r="45" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83155421232296478</v>
+        <v>0.14343748272068335</v>
       </c>
       <c r="B45" s="2">
         <v>45</v>
@@ -2730,7 +2731,7 @@
     <row r="46" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99586988502049012</v>
+        <v>0.64769798926367428</v>
       </c>
       <c r="B46" s="2">
         <v>128</v>
@@ -2751,7 +2752,7 @@
     <row r="47" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72909069361226253</v>
+        <v>4.5208853248788206E-2</v>
       </c>
       <c r="B47" s="2">
         <v>224</v>
@@ -2775,7 +2776,7 @@
     <row r="48" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59632116467989571</v>
+        <v>0.59807638694176246</v>
       </c>
       <c r="B48" s="2">
         <v>177</v>
@@ -2802,7 +2803,7 @@
     <row r="49" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62503050264185733</v>
+        <v>6.2782042581826514E-2</v>
       </c>
       <c r="B49" s="2">
         <v>21</v>
@@ -2826,7 +2827,7 @@
     <row r="50" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66589189351262446</v>
+        <v>0.20793964581603974</v>
       </c>
       <c r="B50" s="2">
         <v>172</v>
@@ -2850,7 +2851,7 @@
     <row r="51" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35763540223624368</v>
+        <v>0.68923713523448038</v>
       </c>
       <c r="B51" s="2">
         <v>31</v>
@@ -2874,7 +2875,7 @@
     <row r="52" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20348480567302263</v>
+        <v>0.80078594756680854</v>
       </c>
       <c r="B52" s="2">
         <v>70</v>
@@ -2895,7 +2896,7 @@
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20454353065807784</v>
+        <v>0.12856478632782065</v>
       </c>
       <c r="B53" s="2">
         <v>52</v>
@@ -2919,7 +2920,7 @@
     <row r="54" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61203204550247481</v>
+        <v>0.22948011654613787</v>
       </c>
       <c r="B54" s="2">
         <v>40</v>
@@ -2940,7 +2941,7 @@
     <row r="55" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1841205414622209E-3</v>
+        <v>0.75719974746251018</v>
       </c>
       <c r="B55" s="2">
         <v>134</v>
@@ -2961,7 +2962,7 @@
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1953410518920013E-2</v>
+        <v>8.9263177237198121E-2</v>
       </c>
       <c r="B56" s="2">
         <v>185</v>
@@ -2985,7 +2986,7 @@
     <row r="57" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6943071587572599</v>
+        <v>0.42844993214427329</v>
       </c>
       <c r="B57" s="2">
         <v>107</v>
@@ -3012,7 +3013,7 @@
     <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83217489970612868</v>
+        <v>0.31491880844316389</v>
       </c>
       <c r="B58" s="2">
         <v>146</v>
@@ -3036,7 +3037,7 @@
     <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41350078207627305</v>
+        <v>0.27844099706779057</v>
       </c>
       <c r="B59" s="2">
         <v>169</v>
@@ -3063,7 +3064,7 @@
     <row r="60" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20373601050446399</v>
+        <v>0.12191487694405523</v>
       </c>
       <c r="B60" s="2">
         <v>108</v>
@@ -3090,7 +3091,7 @@
     <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39361959092141918</v>
+        <v>0.24787752350498526</v>
       </c>
       <c r="B61" s="2">
         <v>80</v>
@@ -3114,7 +3115,7 @@
     <row r="62" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1050156478549783</v>
+        <v>0.24992101068278416</v>
       </c>
       <c r="B62" s="2">
         <v>221</v>
@@ -3135,7 +3136,7 @@
     <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97287936694911747</v>
+        <v>0.43346002737330935</v>
       </c>
       <c r="B63" s="2">
         <v>72</v>
@@ -3162,7 +3163,7 @@
     <row r="64" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62189206320692303</v>
+        <v>0.43695634402154404</v>
       </c>
       <c r="B64" s="2">
         <v>19</v>
@@ -3186,7 +3187,7 @@
     <row r="65" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91031657420337364</v>
+        <v>0.80832224956026488</v>
       </c>
       <c r="B65" s="2">
         <v>7</v>
@@ -3207,7 +3208,7 @@
     <row r="66" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.36848251984324776</v>
+        <v>0.91175656403501937</v>
       </c>
       <c r="B66" s="2">
         <v>20</v>
@@ -3228,7 +3229,7 @@
     <row r="67" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81386076413338293</v>
+        <v>0.8547908727650303</v>
       </c>
       <c r="B67" s="2">
         <v>225</v>
@@ -3255,7 +3256,7 @@
     <row r="68" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81077190278440958</v>
+        <v>0.36789871677456254</v>
       </c>
       <c r="B68" s="2">
         <v>229</v>
@@ -3279,7 +3280,7 @@
     <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88375720897972643</v>
+        <v>0.67555171586057405</v>
       </c>
       <c r="B69" s="2">
         <v>79</v>
@@ -3306,7 +3307,7 @@
     <row r="70" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76523364857647658</v>
+        <v>0.24608199100440087</v>
       </c>
       <c r="B70" s="2">
         <v>208</v>
@@ -3330,7 +3331,7 @@
     <row r="71" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69609220287069096</v>
+        <v>5.6449147112649367E-2</v>
       </c>
       <c r="B71" s="2">
         <v>15</v>
@@ -3357,7 +3358,7 @@
     <row r="72" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42088480403876805</v>
+        <v>0.29346406502332656</v>
       </c>
       <c r="B72" s="2">
         <v>132</v>
@@ -3378,7 +3379,7 @@
     <row r="73" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5186074926405677E-2</v>
+        <v>0.4051678741742788</v>
       </c>
       <c r="B73" s="2">
         <v>194</v>
@@ -3402,7 +3403,7 @@
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65883294336070186</v>
+        <v>0.53233004740868906</v>
       </c>
       <c r="B74" s="2">
         <v>57</v>
@@ -3423,7 +3424,7 @@
     <row r="75" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91948613861026629</v>
+        <v>0.92306874608427147</v>
       </c>
       <c r="B75" s="2">
         <v>124</v>
@@ -3447,7 +3448,7 @@
     <row r="76" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27976804261566657</v>
+        <v>0.4686029257990203</v>
       </c>
       <c r="B76" s="2">
         <v>26</v>
@@ -3471,7 +3472,7 @@
     <row r="77" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42429899371529334</v>
+        <v>4.2314926919001072E-2</v>
       </c>
       <c r="B77" s="2">
         <v>182</v>
@@ -3495,7 +3496,7 @@
     <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19883714080314363</v>
+        <v>3.8631373925413715E-2</v>
       </c>
       <c r="B78" s="2">
         <v>202</v>
@@ -3516,7 +3517,7 @@
     <row r="79" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68757731541238942</v>
+        <v>0.39986097413159039</v>
       </c>
       <c r="B79" s="2">
         <v>179</v>
@@ -3540,7 +3541,7 @@
     <row r="80" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4370106890169505</v>
+        <v>0.96113727732419985</v>
       </c>
       <c r="B80" s="2">
         <v>210</v>
@@ -3564,7 +3565,7 @@
     <row r="81" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66069980444919341</v>
+        <v>0.23284789157221819</v>
       </c>
       <c r="B81" s="2">
         <v>39</v>
@@ -3585,7 +3586,7 @@
     <row r="82" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.310579267467852E-2</v>
+        <v>0.21575268449052354</v>
       </c>
       <c r="B82" s="2">
         <v>22</v>
@@ -3606,7 +3607,7 @@
     <row r="83" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71439456082504738</v>
+        <v>0.88503819377122817</v>
       </c>
       <c r="B83" s="2">
         <v>41</v>
@@ -3627,7 +3628,7 @@
     <row r="84" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5805910994919152E-2</v>
+        <v>0.38130533369424835</v>
       </c>
       <c r="B84" s="2">
         <v>24</v>
@@ -3651,7 +3652,7 @@
     <row r="85" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.31268803340232176</v>
+        <v>7.8782710377487519E-2</v>
       </c>
       <c r="B85" s="2">
         <v>125</v>
@@ -3672,7 +3673,7 @@
     <row r="86" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15907081742521412</v>
+        <v>0.88715546544816859</v>
       </c>
       <c r="B86" s="2">
         <v>211</v>
@@ -3696,7 +3697,7 @@
     <row r="87" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98075039610559045</v>
+        <v>0.41192792173422788</v>
       </c>
       <c r="B87" s="2">
         <v>207</v>
@@ -3720,7 +3721,7 @@
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74431088774939724</v>
+        <v>1.0375962722901311E-2</v>
       </c>
       <c r="B88" s="2">
         <v>175</v>
@@ -3744,7 +3745,7 @@
     <row r="89" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75705665952254919</v>
+        <v>0.69014368582310126</v>
       </c>
       <c r="B89" s="2">
         <v>89</v>
@@ -3771,7 +3772,7 @@
     <row r="90" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51779966550604817</v>
+        <v>0.64654875170496329</v>
       </c>
       <c r="B90" s="2">
         <v>218</v>
@@ -3792,7 +3793,7 @@
     <row r="91" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28396168681860856</v>
+        <v>0.31066581970938256</v>
       </c>
       <c r="B91" s="2">
         <v>96</v>
@@ -3816,7 +3817,7 @@
     <row r="92" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97867915534928496</v>
+        <v>0.14211995567665792</v>
       </c>
       <c r="B92" s="2">
         <v>115</v>
@@ -3837,7 +3838,7 @@
     <row r="93" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43333291085587644</v>
+        <v>0.23570224625150049</v>
       </c>
       <c r="B93" s="2">
         <v>91</v>
@@ -3861,7 +3862,7 @@
     <row r="94" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8668390006878863E-2</v>
+        <v>0.16980377924157641</v>
       </c>
       <c r="B94" s="2">
         <v>157</v>
@@ -3882,7 +3883,7 @@
     <row r="95" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50095322295816191</v>
+        <v>0.21565635668087124</v>
       </c>
       <c r="B95" s="2">
         <v>85</v>
@@ -3906,7 +3907,7 @@
     <row r="96" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5.715946144341244E-2</v>
+        <v>0.41649269636903019</v>
       </c>
       <c r="B96" s="2">
         <v>133</v>
@@ -3927,7 +3928,7 @@
     <row r="97" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7070995813994765E-3</v>
+        <v>0.85042518525415522</v>
       </c>
       <c r="B97" s="2">
         <v>12</v>
@@ -3954,7 +3955,7 @@
     <row r="98" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4366976093277567</v>
+        <v>0.64577568304589916</v>
       </c>
       <c r="B98" s="2">
         <v>230</v>
@@ -3975,7 +3976,7 @@
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81508990139392623</v>
+        <v>0.41866877791089629</v>
       </c>
       <c r="B99" s="2">
         <v>183</v>
@@ -3999,7 +4000,7 @@
     <row r="100" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.4849438653721353</v>
+        <v>8.9445223749725855E-2</v>
       </c>
       <c r="B100" s="2">
         <v>171</v>
@@ -4026,7 +4027,7 @@
     <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14780315979009917</v>
+        <v>0.71354624985597792</v>
       </c>
       <c r="B101" s="2">
         <v>76</v>
@@ -4050,7 +4051,7 @@
     <row r="102" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.72480668301600659</v>
+        <v>0.18140958924403883</v>
       </c>
       <c r="B102" s="2">
         <v>111</v>
@@ -4071,7 +4072,7 @@
     <row r="103" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89495546504013723</v>
+        <v>0.327010239420369</v>
       </c>
       <c r="B103" s="2">
         <v>104</v>
@@ -4095,7 +4096,7 @@
     <row r="104" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80626807710307247</v>
+        <v>0.56695824199309752</v>
       </c>
       <c r="B104" s="2">
         <v>143</v>
@@ -4119,7 +4120,7 @@
     <row r="105" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23406232032149166</v>
+        <v>0.55971648731627088</v>
       </c>
       <c r="B105" s="2">
         <v>105</v>
@@ -4143,7 +4144,7 @@
     <row r="106" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86962078109620855</v>
+        <v>2.9475047783615649E-2</v>
       </c>
       <c r="B106" s="2">
         <v>144</v>
@@ -4167,7 +4168,7 @@
     <row r="107" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49239024102411533</v>
+        <v>0.74331702493296503</v>
       </c>
       <c r="B107" s="2">
         <v>106</v>
@@ -4188,7 +4189,7 @@
     <row r="108" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70656600820743709</v>
+        <v>0.78981917620867148</v>
       </c>
       <c r="B108" s="2">
         <v>214</v>
@@ -4212,7 +4213,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95694069914528057</v>
+        <v>0.58886972872141174</v>
       </c>
       <c r="B109" s="2">
         <v>94</v>
@@ -4233,7 +4234,7 @@
     <row r="110" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69276052726568427</v>
+        <v>0.62507511738529564</v>
       </c>
       <c r="B110" s="2">
         <v>33</v>
@@ -4254,7 +4255,7 @@
     <row r="111" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.97492212460023886</v>
+        <v>0.80145132326880153</v>
       </c>
       <c r="B111" s="2">
         <v>148</v>
@@ -4275,7 +4276,7 @@
     <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2394949421746904E-2</v>
+        <v>0.14193356677629576</v>
       </c>
       <c r="B112" s="2">
         <v>42</v>
@@ -4296,7 +4297,7 @@
     <row r="113" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8083978224903428E-2</v>
+        <v>0.17984478600489295</v>
       </c>
       <c r="B113" s="2">
         <v>195</v>
@@ -4323,7 +4324,7 @@
     <row r="114" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0678063271459592E-2</v>
+        <v>0.54563781840910885</v>
       </c>
       <c r="B114" s="2">
         <v>3</v>
@@ -4344,7 +4345,7 @@
     <row r="115" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88445647457141585</v>
+        <v>0.76420518754090416</v>
       </c>
       <c r="B115" s="2">
         <v>25</v>
@@ -4368,7 +4369,7 @@
     <row r="116" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49196466585414222</v>
+        <v>0.54985142657657637</v>
       </c>
       <c r="B116" s="2">
         <v>205</v>
@@ -4392,7 +4393,7 @@
     <row r="117" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27479313883268797</v>
+        <v>0.62643400800775217</v>
       </c>
       <c r="B117" s="2">
         <v>95</v>
@@ -4413,7 +4414,7 @@
     <row r="118" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96319778751912766</v>
+        <v>0.70331974014524279</v>
       </c>
       <c r="B118" s="2">
         <v>51</v>
@@ -4440,7 +4441,7 @@
     <row r="119" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5585196402623263E-3</v>
+        <v>0.60141028802000451</v>
       </c>
       <c r="B119" s="2">
         <v>30</v>
@@ -4464,7 +4465,7 @@
     <row r="120" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56538133181950001</v>
+        <v>0.93241956024894246</v>
       </c>
       <c r="B120" s="2">
         <v>112</v>
@@ -4488,7 +4489,7 @@
     <row r="121" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30967072128026474</v>
+        <v>0.18726244872623432</v>
       </c>
       <c r="B121" s="2">
         <v>135</v>
@@ -4509,7 +4510,7 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21767550123530455</v>
+        <v>0.92912999861901002</v>
       </c>
       <c r="B122" s="2">
         <v>56</v>
@@ -4536,7 +4537,7 @@
     <row r="123" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3096672481474325E-2</v>
+        <v>0.18175775800342164</v>
       </c>
       <c r="B123" s="2">
         <v>92</v>
@@ -4563,7 +4564,7 @@
     <row r="124" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74727641803648415</v>
+        <v>0.11189972082162436</v>
       </c>
       <c r="B124" s="2">
         <v>164</v>
@@ -4587,7 +4588,7 @@
     <row r="125" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.67172973961567206</v>
+        <v>0.72549182907463172</v>
       </c>
       <c r="B125" s="2">
         <v>67</v>
@@ -4617,7 +4618,7 @@
     <row r="126" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23003152589335685</v>
+        <v>0.58538119783506226</v>
       </c>
       <c r="B126" s="2">
         <v>181</v>
@@ -4647,7 +4648,7 @@
     <row r="127" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21519418925190648</v>
+        <v>6.2866436593995156E-2</v>
       </c>
       <c r="B127" s="2">
         <v>4</v>
@@ -4671,7 +4672,7 @@
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98450898525535158</v>
+        <v>0.64372184582650949</v>
       </c>
       <c r="B128" s="2">
         <v>162</v>
@@ -4695,7 +4696,7 @@
     <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44668093408015852</v>
+        <v>0.22413338378112613</v>
       </c>
       <c r="B129" s="2">
         <v>78</v>
@@ -4722,7 +4723,7 @@
     <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.67048831245538021</v>
+        <v>4.3316133359746489E-2</v>
       </c>
       <c r="B130" s="2">
         <v>23</v>
@@ -4749,7 +4750,7 @@
     <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37626524247703663</v>
+        <v>0.93390443489856745</v>
       </c>
       <c r="B131" s="2">
         <v>59</v>
@@ -4776,7 +4777,7 @@
     <row r="132" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8644335372129428</v>
+        <v>0.98792683348530586</v>
       </c>
       <c r="B132" s="2">
         <v>166</v>
@@ -4800,7 +4801,7 @@
     <row r="133" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2302613376242082E-2</v>
+        <v>0.85045895500115498</v>
       </c>
       <c r="B133" s="2">
         <v>186</v>
@@ -4821,7 +4822,7 @@
     <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35272261096639634</v>
+        <v>0.30662432307667997</v>
       </c>
       <c r="B134" s="2">
         <v>184</v>
@@ -4845,7 +4846,7 @@
     <row r="135" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99224173807552829</v>
+        <v>0.49805530328277914</v>
       </c>
       <c r="B135" s="2">
         <v>38</v>
@@ -4866,7 +4867,7 @@
     <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47335645840183016</v>
+        <v>0.5097182716818166</v>
       </c>
       <c r="B136" s="2">
         <v>220</v>
@@ -4887,7 +4888,7 @@
     <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5895579323492377</v>
+        <v>0.45431270893529785</v>
       </c>
       <c r="B137" s="2">
         <v>58</v>
@@ -4911,7 +4912,7 @@
     <row r="138" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87701584522425058</v>
+        <v>0.44057428315397429</v>
       </c>
       <c r="B138" s="2">
         <v>119</v>
@@ -4932,7 +4933,7 @@
     <row r="139" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35674010774087184</v>
+        <v>0.55183093132420613</v>
       </c>
       <c r="B139" s="2">
         <v>103</v>
@@ -4956,7 +4957,7 @@
     <row r="140" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98128369263845405</v>
+        <v>0.72979407995995071</v>
       </c>
       <c r="B140" s="2">
         <v>215</v>
@@ -4977,7 +4978,7 @@
     <row r="141" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1967973544179884</v>
+        <v>0.90463822550521777</v>
       </c>
       <c r="B141" s="2">
         <v>216</v>
@@ -5001,7 +5002,7 @@
     <row r="142" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30305649956311709</v>
+        <v>6.0940256937977444E-2</v>
       </c>
       <c r="B142" s="2">
         <v>189</v>
@@ -5025,7 +5026,7 @@
     <row r="143" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40081998472564628</v>
+        <v>0.228336624231674</v>
       </c>
       <c r="B143" s="2">
         <v>5</v>
@@ -5049,7 +5050,7 @@
     <row r="144" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75264368170471252</v>
+        <v>0.63164825151393245</v>
       </c>
       <c r="B144" s="2">
         <v>142</v>
@@ -5073,7 +5074,7 @@
     <row r="145" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.62377826110596946</v>
+        <v>0.34283722256635185</v>
       </c>
       <c r="B145" s="2">
         <v>77</v>
@@ -5097,7 +5098,7 @@
     <row r="146" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59404140976198083</v>
+        <v>0.84133478773421799</v>
       </c>
       <c r="B146" s="2">
         <v>209</v>
@@ -5121,7 +5122,7 @@
     <row r="147" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28600332268240669</v>
+        <v>0.1436587031284281</v>
       </c>
       <c r="B147" s="2">
         <v>193</v>
@@ -5142,7 +5143,7 @@
     <row r="148" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.38833729332777E-2</v>
+        <v>0.56842448411619484</v>
       </c>
       <c r="B148" s="2">
         <v>163</v>
@@ -5166,7 +5167,7 @@
     <row r="149" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37570553238285909</v>
+        <v>0.77422263723412754</v>
       </c>
       <c r="B149" s="2">
         <v>83</v>
@@ -5193,7 +5194,7 @@
     <row r="150" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90950066910547711</v>
+        <v>0.53665258985831921</v>
       </c>
       <c r="B150" s="2">
         <v>192</v>
@@ -5214,7 +5215,7 @@
     <row r="151" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14929242916867846</v>
+        <v>0.63181995644178035</v>
       </c>
       <c r="B151" s="2">
         <v>93</v>
@@ -5235,7 +5236,7 @@
     <row r="152" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0034211278777181E-2</v>
+        <v>0.86170980298369726</v>
       </c>
       <c r="B152" s="2">
         <v>212</v>
@@ -5259,7 +5260,7 @@
     <row r="153" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64119865391399422</v>
+        <v>0.22687130817835865</v>
       </c>
       <c r="B153" s="2">
         <v>63</v>
@@ -5289,7 +5290,7 @@
     <row r="154" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2108012810383029E-2</v>
+        <v>0.40019346154199753</v>
       </c>
       <c r="B154" s="2">
         <v>160</v>
@@ -5316,7 +5317,7 @@
     <row r="155" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25523300604551657</v>
+        <v>0.60094465232624061</v>
       </c>
       <c r="B155" s="2">
         <v>187</v>
@@ -5340,7 +5341,7 @@
     <row r="156" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.2723386246558119E-3</v>
+        <v>0.11159806265022709</v>
       </c>
       <c r="B156" s="2">
         <v>17</v>
@@ -5367,7 +5368,7 @@
     <row r="157" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20493610660870509</v>
+        <v>0.3102051771604647</v>
       </c>
       <c r="B157" s="2">
         <v>167</v>
@@ -5391,7 +5392,7 @@
     <row r="158" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57729108842655708</v>
+        <v>0.34782329439422843</v>
       </c>
       <c r="B158" s="2">
         <v>206</v>
@@ -5415,7 +5416,7 @@
     <row r="159" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6668323766502291</v>
+        <v>0.5886014014698655</v>
       </c>
       <c r="B159" s="2">
         <v>127</v>
@@ -5439,7 +5440,7 @@
     <row r="160" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87999344545174851</v>
+        <v>0.33928979012813731</v>
       </c>
       <c r="B160" s="2">
         <v>75</v>
@@ -5463,7 +5464,7 @@
     <row r="161" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13795833683549497</v>
+        <v>0.19574472870446857</v>
       </c>
       <c r="B161" s="2">
         <v>150</v>
@@ -5484,7 +5485,7 @@
     <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25082058099401006</v>
+        <v>7.3339479620931458E-2</v>
       </c>
       <c r="B162" s="2">
         <v>219</v>
@@ -5508,7 +5509,7 @@
     <row r="163" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92718945588680368</v>
+        <v>0.47521062459892005</v>
       </c>
       <c r="B163" s="2">
         <v>49</v>
@@ -5535,7 +5536,7 @@
     <row r="164" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60836731698000557</v>
+        <v>0.41569585780784069</v>
       </c>
       <c r="B164" s="2">
         <v>151</v>
@@ -5559,7 +5560,7 @@
     <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5046217216992295E-2</v>
+        <v>0.22695156373526415</v>
       </c>
       <c r="B165" s="2">
         <v>168</v>
@@ -5586,7 +5587,7 @@
     <row r="166" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.91572433524708152</v>
+        <v>0.64892224943697741</v>
       </c>
       <c r="B166" s="2">
         <v>47</v>
@@ -5607,7 +5608,7 @@
     <row r="167" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4.246880752590354E-2</v>
+        <v>0.54613222013364504</v>
       </c>
       <c r="B167" s="2">
         <v>141</v>
@@ -5631,7 +5632,7 @@
     <row r="168" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35599688316607336</v>
+        <v>0.6515713059207725</v>
       </c>
       <c r="B168" s="2">
         <v>154</v>
@@ -5652,7 +5653,7 @@
     <row r="169" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22898927355150567</v>
+        <v>1.310257123379166E-2</v>
       </c>
       <c r="B169" s="2">
         <v>130</v>
@@ -5676,7 +5677,7 @@
     <row r="170" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43731661702478064</v>
+        <v>0.32663960201767095</v>
       </c>
       <c r="B170" s="2">
         <v>28</v>
@@ -5697,7 +5698,7 @@
     <row r="171" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48279999469950985</v>
+        <v>0.9260276167288306</v>
       </c>
       <c r="B171" s="2">
         <v>232</v>
@@ -5721,7 +5722,7 @@
     <row r="172" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92729746326650264</v>
+        <v>0.32298565353292996</v>
       </c>
       <c r="B172" s="2">
         <v>13</v>
@@ -5745,7 +5746,7 @@
     <row r="173" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77336233148363853</v>
+        <v>4.4389267365794627E-2</v>
       </c>
       <c r="B173" s="2">
         <v>66</v>
@@ -5769,7 +5770,7 @@
     <row r="174" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67053512494539613</v>
+        <v>0.40649570183140837</v>
       </c>
       <c r="B174" s="2">
         <v>27</v>
@@ -5793,7 +5794,7 @@
     <row r="175" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76522868253045839</v>
+        <v>7.4741299768538272E-2</v>
       </c>
       <c r="B175" s="2">
         <v>165</v>
@@ -5814,7 +5815,7 @@
     <row r="176" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.48304925434750656</v>
+        <v>0.24033330059286462</v>
       </c>
       <c r="B176" s="2">
         <v>188</v>
@@ -5838,7 +5839,7 @@
     <row r="177" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70061506289375697</v>
+        <v>0.62787772997658375</v>
       </c>
       <c r="B177" s="2">
         <v>178</v>
@@ -5862,7 +5863,7 @@
     <row r="178" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56558206584501747</v>
+        <v>6.1850556819799785E-2</v>
       </c>
       <c r="B178" s="2">
         <v>137</v>
@@ -5883,7 +5884,7 @@
     <row r="179" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42541741343389727</v>
+        <v>0.90149175300954354</v>
       </c>
       <c r="B179" s="2">
         <v>9</v>
@@ -5907,7 +5908,7 @@
     <row r="180" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17043452615769528</v>
+        <v>0.47345656908211153</v>
       </c>
       <c r="B180" s="2">
         <v>117</v>
@@ -5931,7 +5932,7 @@
     <row r="181" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99299231383507158</v>
+        <v>0.14202520693031295</v>
       </c>
       <c r="B181" s="2">
         <v>8</v>
@@ -5955,7 +5956,7 @@
     <row r="182" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45340087371407956</v>
+        <v>0.54830613700806174</v>
       </c>
       <c r="B182" s="2">
         <v>139</v>
@@ -5979,7 +5980,7 @@
     <row r="183" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94578029115660711</v>
+        <v>0.73412073294543545</v>
       </c>
       <c r="B183" s="2">
         <v>60</v>
@@ -6006,7 +6007,7 @@
     <row r="184" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.10246491348928577</v>
+        <v>0.76102053461199126</v>
       </c>
       <c r="B184" s="2">
         <v>100</v>
@@ -6027,7 +6028,7 @@
     <row r="185" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6884235471777771</v>
+        <v>0.32496908158985938</v>
       </c>
       <c r="B185" s="2">
         <v>228</v>
@@ -6051,7 +6052,7 @@
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53291962012741567</v>
+        <v>0.46506569562286248</v>
       </c>
       <c r="B186" s="2">
         <v>1</v>
@@ -6072,7 +6073,7 @@
     <row r="187" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33036748215683698</v>
+        <v>0.85423105794576959</v>
       </c>
       <c r="B187" s="2">
         <v>43</v>
@@ -6093,7 +6094,7 @@
     <row r="188" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59253147809157902</v>
+        <v>0.25710627222666615</v>
       </c>
       <c r="B188" s="2">
         <v>217</v>
@@ -6117,7 +6118,7 @@
     <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4597045926375452E-2</v>
+        <v>0.94876196718443151</v>
       </c>
       <c r="B189" s="2">
         <v>204</v>
@@ -6138,7 +6139,7 @@
     <row r="190" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31961782004509764</v>
+        <v>0.81744508864200804</v>
       </c>
       <c r="B190" s="2">
         <v>129</v>
@@ -6159,7 +6160,7 @@
     <row r="191" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74509373190681727</v>
+        <v>0.77341410091488538</v>
       </c>
       <c r="B191" s="2">
         <v>99</v>
@@ -6183,7 +6184,7 @@
     <row r="192" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31087809217861284</v>
+        <v>0.98734243275208422</v>
       </c>
       <c r="B192" s="2">
         <v>145</v>
@@ -6204,7 +6205,7 @@
     <row r="193" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47992090029147516</v>
+        <v>0.58030158563748924</v>
       </c>
       <c r="B193" s="2">
         <v>201</v>
@@ -6225,7 +6226,7 @@
     <row r="194" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A233" ca="1" si="3">RAND()</f>
-        <v>0.45232381983941183</v>
+        <v>0.77433106711998756</v>
       </c>
       <c r="B194" s="2">
         <v>62</v>
@@ -6246,7 +6247,7 @@
     <row r="195" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54137154103407237</v>
+        <v>0.58431310761906197</v>
       </c>
       <c r="B195" s="2">
         <v>227</v>
@@ -6267,7 +6268,7 @@
     <row r="196" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4702032207540192E-2</v>
+        <v>0.33019302842123566</v>
       </c>
       <c r="B196" s="2">
         <v>114</v>
@@ -6291,7 +6292,7 @@
     <row r="197" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44401801703791677</v>
+        <v>0.94827735803942637</v>
       </c>
       <c r="B197" s="2">
         <v>180</v>
@@ -6315,7 +6316,7 @@
     <row r="198" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6170600798820312E-2</v>
+        <v>0.26051413718875582</v>
       </c>
       <c r="B198" s="2">
         <v>29</v>
@@ -6336,7 +6337,7 @@
     <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45338230084307984</v>
+        <v>0.11535628808009246</v>
       </c>
       <c r="B199" s="2">
         <v>81</v>
@@ -6360,7 +6361,7 @@
     <row r="200" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57534151150202739</v>
+        <v>0.3364482544879972</v>
       </c>
       <c r="B200" s="2">
         <v>46</v>
@@ -6381,7 +6382,7 @@
     <row r="201" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11339759674835537</v>
+        <v>0.62790443257096196</v>
       </c>
       <c r="B201" s="2">
         <v>223</v>
@@ -6408,7 +6409,7 @@
     <row r="202" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69219405568988168</v>
+        <v>0.41846907532071365</v>
       </c>
       <c r="B202" s="2">
         <v>222</v>
@@ -6429,7 +6430,7 @@
     <row r="203" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64620565749407721</v>
+        <v>0.29156584006354458</v>
       </c>
       <c r="B203" s="2">
         <v>34</v>
@@ -6450,7 +6451,7 @@
     <row r="204" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71133785931190419</v>
+        <v>0.67821358736961301</v>
       </c>
       <c r="B204" s="2">
         <v>113</v>
@@ -6471,7 +6472,7 @@
     <row r="205" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14328541483296164</v>
+        <v>1.3987337606913286E-2</v>
       </c>
       <c r="B205" s="2">
         <v>200</v>
@@ -6492,7 +6493,7 @@
     <row r="206" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7478236576323893E-2</v>
+        <v>0.408909219595186</v>
       </c>
       <c r="B206" s="2">
         <v>64</v>
@@ -6519,7 +6520,7 @@
     <row r="207" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9234633638333235</v>
+        <v>0.4902306913419433</v>
       </c>
       <c r="B207" s="2">
         <v>61</v>
@@ -6546,7 +6547,7 @@
     <row r="208" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.9977424223112934</v>
+        <v>0.37948814457898894</v>
       </c>
       <c r="B208" s="2">
         <v>69</v>
@@ -6573,7 +6574,7 @@
     <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58805417387190417</v>
+        <v>0.79913902783465263</v>
       </c>
       <c r="B209" s="2">
         <v>55</v>
@@ -6594,7 +6595,7 @@
     <row r="210" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.65653356503379623</v>
+        <v>0.38617472285468235</v>
       </c>
       <c r="B210" s="2">
         <v>37</v>
@@ -6618,7 +6619,7 @@
     <row r="211" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36324674740409546</v>
+        <v>0.78423468308589983</v>
       </c>
       <c r="B211" s="2">
         <v>102</v>
@@ -6645,7 +6646,7 @@
     <row r="212" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91329121006872582</v>
+        <v>0.83874733394193812</v>
       </c>
       <c r="B212" s="2">
         <v>11</v>
@@ -6669,7 +6670,7 @@
     <row r="213" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.297967239180157</v>
+        <v>0.38685062123632985</v>
       </c>
       <c r="B213" s="2">
         <v>123</v>
@@ -6690,7 +6691,7 @@
     <row r="214" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85788848339748802</v>
+        <v>0.77374442882915562</v>
       </c>
       <c r="B214" s="2">
         <v>98</v>
@@ -6714,7 +6715,7 @@
     <row r="215" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.9267583124286705E-2</v>
+        <v>0.45742703630696024</v>
       </c>
       <c r="B215" s="2">
         <v>138</v>
@@ -6735,7 +6736,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12458606374224701</v>
+        <v>0.87319399454730307</v>
       </c>
       <c r="B216" s="2">
         <v>126</v>
@@ -6756,7 +6757,7 @@
     <row r="217" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29795848662208635</v>
+        <v>0.30040649438459255</v>
       </c>
       <c r="B217" s="2">
         <v>10</v>
@@ -6777,7 +6778,7 @@
     <row r="218" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3131080015688712</v>
+        <v>0.85569335668867408</v>
       </c>
       <c r="B218" s="2">
         <v>147</v>
@@ -6798,7 +6799,7 @@
     <row r="219" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74904573576546596</v>
+        <v>0.6080882951761577</v>
       </c>
       <c r="B219" s="2">
         <v>71</v>
@@ -6822,7 +6823,7 @@
     <row r="220" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82792854929224025</v>
+        <v>0.78860411891682147</v>
       </c>
       <c r="B220" s="2">
         <v>197</v>
@@ -6849,7 +6850,7 @@
     <row r="221" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.69235489870709965</v>
+        <v>0.96305998582457131</v>
       </c>
       <c r="B221" s="2">
         <v>48</v>
@@ -6870,7 +6871,7 @@
     <row r="222" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75172209951077007</v>
+        <v>0.22698320832983865</v>
       </c>
       <c r="B222" s="2">
         <v>68</v>
@@ -6894,7 +6895,7 @@
     <row r="223" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97021232661623868</v>
+        <v>0.4806859699489836</v>
       </c>
       <c r="B223" s="2">
         <v>65</v>
@@ -6921,7 +6922,7 @@
     <row r="224" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93004356486482598</v>
+        <v>0.69039755205766995</v>
       </c>
       <c r="B224" s="2">
         <v>196</v>
@@ -6945,7 +6946,7 @@
     <row r="225" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99605768733223865</v>
+        <v>0.20417317139166924</v>
       </c>
       <c r="B225" s="2">
         <v>136</v>
@@ -6966,7 +6967,7 @@
     <row r="226" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96599143866125492</v>
+        <v>0.36183590775553776</v>
       </c>
       <c r="B226" s="2">
         <v>84</v>
@@ -6990,7 +6991,7 @@
     <row r="227" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71514222620145407</v>
+        <v>0.49806621340712687</v>
       </c>
       <c r="B227" s="2">
         <v>74</v>
@@ -7017,7 +7018,7 @@
     <row r="228" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30625928547737702</v>
+        <v>0.46870884428800796</v>
       </c>
       <c r="B228" s="2">
         <v>156</v>
@@ -7041,7 +7042,7 @@
     <row r="229" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33321305491759379</v>
+        <v>0.19620321862999635</v>
       </c>
       <c r="B229" s="2">
         <v>2</v>
@@ -7062,7 +7063,7 @@
     <row r="230" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2059360077405088</v>
+        <v>0.20347725576481268</v>
       </c>
       <c r="B230" s="2">
         <v>149</v>
@@ -7086,7 +7087,7 @@
     <row r="231" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27921348785159716</v>
+        <v>0.33340012787834794</v>
       </c>
       <c r="B231" s="2">
         <v>153</v>
@@ -7107,7 +7108,7 @@
     <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92604728419634386</v>
+        <v>0.46122525046110219</v>
       </c>
       <c r="B232" s="2">
         <v>155</v>
@@ -7134,7 +7135,7 @@
     <row r="233" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59028789022943218</v>
+        <v>0.84186839156094118</v>
       </c>
       <c r="B233" s="2">
         <v>174</v>
@@ -7255,7 +7256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
+    <sheetView topLeftCell="A219" workbookViewId="0">
       <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
